--- a/20231203_ISO 25010 の品質項目/331_品質特性.xlsx
+++ b/20231203_ISO 25010 の品質項目/331_品質特性.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\s1xxxxxx_ISO 25010 の品質項目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20231203_ISO 25010 の品質項目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234263C-F3ED-4063-8BA2-40A81F2FFBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB68CC5D-503B-4C23-BE00-90F643A52A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3989E682-7E02-4DCD-8C11-3483C6B3C5EB}"/>
+    <workbookView xWindow="8355" yWindow="2955" windowWidth="20445" windowHeight="12465" xr2:uid="{3989E682-7E02-4DCD-8C11-3483C6B3C5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="550">
   <si>
     <t>有効性</t>
   </si>
@@ -275,25 +275,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Functional Suitability</t>
-  </si>
-  <si>
-    <t>Functional Completeness</t>
-  </si>
-  <si>
-    <t>Functional Correctness</t>
-  </si>
-  <si>
-    <t>Functional Appropriateness</t>
-  </si>
-  <si>
-    <t>Performance Efficiency</t>
-  </si>
-  <si>
     <t>システムやソフトウェアの性能、効率性、リソース利用の最適化を評価します。</t>
-  </si>
-  <si>
-    <t>health and safety risk mitigation</t>
   </si>
   <si>
     <t>JIS X 25010：2013 (ISO/IEC 25010：2011) システム及びソフトウェア製品の品質要求及び評価（SQuaRE）−システム及びソフトウェア品質モデル</t>
@@ -330,139 +312,19 @@
     <t>Efficiency</t>
   </si>
   <si>
-    <t>Satisfaction</t>
-  </si>
-  <si>
-    <t>Freedom from risk</t>
-  </si>
-  <si>
-    <t>Context coverage</t>
-  </si>
-  <si>
-    <t>Compatibility</t>
-  </si>
-  <si>
-    <t>Usability</t>
-  </si>
-  <si>
-    <t>Reliability</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Maintainability</t>
-  </si>
-  <si>
     <t>Portability</t>
   </si>
   <si>
-    <t>Usefulness</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Pleasure</t>
-  </si>
-  <si>
-    <t>Comfort</t>
-  </si>
-  <si>
-    <t>Economic risk mitigation</t>
-  </si>
-  <si>
-    <t>Environmental risk mitigation</t>
-  </si>
-  <si>
-    <t>Context completeness</t>
-  </si>
-  <si>
-    <t>Flexibility</t>
-  </si>
-  <si>
-    <t>Time behaviour</t>
-  </si>
-  <si>
-    <t>Resource utilization</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Co-existence</t>
-  </si>
-  <si>
-    <t>Interoperability</t>
-  </si>
-  <si>
-    <t>Appropriateness recognizability</t>
-  </si>
-  <si>
-    <t>Learnability</t>
-  </si>
-  <si>
-    <t>Operability</t>
-  </si>
-  <si>
-    <t>User error protection</t>
-  </si>
-  <si>
-    <t>User interface aesthetics</t>
-  </si>
-  <si>
     <t>Accessibility</t>
   </si>
   <si>
-    <t>Maturity</t>
-  </si>
-  <si>
     <t>Availability</t>
   </si>
   <si>
-    <t>Fault tolerance</t>
-  </si>
-  <si>
     <t>Recoverability</t>
   </si>
   <si>
     <t>Confidentiality</t>
-  </si>
-  <si>
-    <t>Integrity</t>
-  </si>
-  <si>
-    <t>Non-repudiation</t>
-  </si>
-  <si>
-    <t>Accountability</t>
-  </si>
-  <si>
-    <t>Authenticity</t>
-  </si>
-  <si>
-    <t>Modularity</t>
-  </si>
-  <si>
-    <t>Reusability</t>
-  </si>
-  <si>
-    <t>Analysability</t>
-  </si>
-  <si>
-    <t>Modifiability</t>
-  </si>
-  <si>
-    <t>Testability</t>
-  </si>
-  <si>
-    <t>Adaptability</t>
-  </si>
-  <si>
-    <t>Installability</t>
-  </si>
-  <si>
-    <t>Replaceability</t>
   </si>
   <si>
     <t>Sub-characteristics</t>
@@ -1790,6 +1652,218 @@
   </si>
   <si>
     <t>JIS X 25024:2018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effectiveness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Efficiency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Usefulness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trust</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pleasure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comfort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Freedom from risk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Economic risk mitigation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Health and safety risk mitigation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Environmental risk mitigation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Context coverage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Context completeness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flexibility</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Functional Suitability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Functional Completeness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Functional Correctness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Functional Appropriateness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Performance Efficiency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time behaviour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resource utilization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Capacity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Compatibility</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Co-existence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interoperability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Usability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Appropriateness recognizability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Learnability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Operability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User error protection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User interface aesthetics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accessibility</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reliability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maturity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Availability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fault tolerance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recoverability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Confidentiality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integrity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Non-repudiation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accountability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Authenticity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maintainability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modularity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reusability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analysability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modifiability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Testability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Portability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Adaptability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Installability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Replaceability</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2072,9 +2146,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2117,12 +2188,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2143,6 +2208,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2483,8 +2557,8 @@
   </sheetPr>
   <dimension ref="A1:U142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C96" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2514,13 +2588,13 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
@@ -2537,49 +2611,49 @@
         <v>53</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>53</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>69</v>
@@ -2599,16 +2673,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>182</v>
+        <v>497</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="J3" s="10">
         <v>1</v>
@@ -2617,23 +2691,23 @@
         <v>0</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>195</v>
+        <v>78</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="14" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
@@ -2653,25 +2727,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="15">
         <f t="shared" ref="J4:J7" si="0">J3</f>
         <v>1</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="14" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
@@ -2691,25 +2765,25 @@
         <v>1</v>
       </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="6" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="14" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
@@ -2730,24 +2804,24 @@
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
       <c r="O6" s="6" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="14" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
@@ -2766,27 +2840,27 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="6" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="14" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
@@ -2801,45 +2875,45 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E8" s="24">
-        <v>2</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="23">
+        <v>2</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="J8" s="24">
+        <v>498</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="23">
         <v>1</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>196</v>
+        <v>79</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>150</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="14" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
@@ -2858,27 +2932,27 @@
         <f>E8</f>
         <v>2</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="15">
         <f t="shared" ref="J9:J13" si="3">J8</f>
         <v>1</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="6" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="14" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -2897,27 +2971,27 @@
         <f>E9</f>
         <v>2</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="6" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="14" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
@@ -2936,27 +3010,27 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="6" t="s">
-        <v>478</v>
+        <v>432</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="14" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
@@ -2975,26 +3049,26 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="16"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="6" t="s">
-        <v>480</v>
+        <v>434</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="14" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
@@ -3009,28 +3083,28 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
       <c r="O13" s="6" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>482</v>
+        <v>436</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="14" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
@@ -3045,45 +3119,45 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="J14" s="24">
+        <v>499</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="23">
         <v>1</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>5</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>268</v>
+        <v>500</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>222</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>483</v>
+        <v>437</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>484</v>
+        <v>438</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="9" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -3103,21 +3177,21 @@
         <v>3</v>
       </c>
       <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="15">
         <f t="shared" ref="J15:J19" si="4">J14</f>
         <v>1</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
       <c r="O15" s="6" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>486</v>
+        <v>440</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
@@ -3139,21 +3213,21 @@
         <v>3</v>
       </c>
       <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="15">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
       <c r="O16" s="6" t="s">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>488</v>
+        <v>442</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -3175,21 +3249,21 @@
         <v>3</v>
       </c>
       <c r="G17" s="16"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="19"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="15">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="6" t="s">
-        <v>489</v>
+        <v>443</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -3211,21 +3285,21 @@
         <v>3</v>
       </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="19"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="15">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="6" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
@@ -3247,21 +3321,21 @@
         <v>3</v>
       </c>
       <c r="G19" s="16"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="32">
+      <c r="H19" s="30"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="31">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
       <c r="O19" s="6" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
@@ -3283,9 +3357,9 @@
         <v>3</v>
       </c>
       <c r="G20" s="16"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="33">
+      <c r="H20" s="30"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="32">
         <f>J14+1</f>
         <v>2</v>
       </c>
@@ -3293,19 +3367,19 @@
         <v>6</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>96</v>
+        <v>501</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>492</v>
+        <v>446</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>493</v>
+        <v>447</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -3327,8 +3401,8 @@
         <v>3</v>
       </c>
       <c r="G21" s="16"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="33">
+      <c r="I21" s="17"/>
+      <c r="J21" s="32">
         <f t="shared" ref="J21:J99" si="5">J20+1</f>
         <v>3</v>
       </c>
@@ -3336,19 +3410,19 @@
         <v>7</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>97</v>
+        <v>502</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -3370,8 +3444,8 @@
         <v>3</v>
       </c>
       <c r="G22" s="16"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24">
+      <c r="I22" s="22"/>
+      <c r="J22" s="23">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3379,19 +3453,19 @@
         <v>8</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -3408,41 +3482,41 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>4</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="J23" s="24">
+        <v>504</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="23">
         <v>1</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>271</v>
+        <v>505</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>225</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
@@ -3464,21 +3538,21 @@
         <v>4</v>
       </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="15">
         <f t="shared" ref="J24:J30" si="6">J23</f>
         <v>1</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="6" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -3500,21 +3574,21 @@
         <v>4</v>
       </c>
       <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="15">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
       <c r="O25" s="6" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -3536,21 +3610,21 @@
         <v>4</v>
       </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="15">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
       <c r="O26" s="6" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>503</v>
+        <v>457</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -3572,21 +3646,21 @@
         <v>4</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="15">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="6" t="s">
-        <v>504</v>
+        <v>458</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
@@ -3608,21 +3682,21 @@
         <v>4</v>
       </c>
       <c r="G28" s="16"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="15">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="6" t="s">
-        <v>505</v>
+        <v>459</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>526</v>
+        <v>480</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
@@ -3644,21 +3718,21 @@
         <v>4</v>
       </c>
       <c r="G29" s="16"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="15">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="6" t="s">
-        <v>506</v>
+        <v>460</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
@@ -3680,21 +3754,21 @@
         <v>4</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="15">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
       <c r="O30" s="6" t="s">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
@@ -3716,28 +3790,28 @@
         <v>4</v>
       </c>
       <c r="G31" s="16"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="24">
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="23">
         <v>2</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>272</v>
+        <v>506</v>
+      </c>
+      <c r="M31" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="N31" s="40" t="s">
+        <v>226</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
@@ -3759,20 +3833,20 @@
         <v>4</v>
       </c>
       <c r="G32" s="16"/>
-      <c r="I32" s="19"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="15">
         <f t="shared" ref="J32:J33" si="8">J31</f>
         <v>2</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
       <c r="O32" s="6" t="s">
-        <v>509</v>
+        <v>463</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
@@ -3794,20 +3868,20 @@
         <v>4</v>
       </c>
       <c r="G33" s="16"/>
-      <c r="I33" s="19"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="15">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
       <c r="O33" s="6" t="s">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
@@ -3828,11 +3902,11 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="33">
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="32">
         <f>J31+1</f>
         <v>3</v>
       </c>
@@ -3840,19 +3914,19 @@
         <v>11</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>100</v>
+        <v>507</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
@@ -3869,38 +3943,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="23">
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="J35" s="27">
+      <c r="J35" s="26">
         <v>1</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>101</v>
+        <v>509</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>513</v>
+        <v>467</v>
       </c>
       <c r="P35" s="9" t="s">
         <v>12</v>
@@ -3925,9 +3999,9 @@
         <v>5</v>
       </c>
       <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="24">
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="23">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -3935,19 +4009,19 @@
         <v>13</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>199</v>
+        <v>510</v>
+      </c>
+      <c r="M36" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N36" s="40" t="s">
+        <v>153</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
@@ -3969,21 +4043,21 @@
         <v>5</v>
       </c>
       <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
       <c r="J37" s="15">
         <f t="shared" ref="J37:J38" si="10">J36</f>
         <v>2</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
       <c r="O37" s="6" t="s">
-        <v>515</v>
+        <v>469</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
@@ -4000,26 +4074,26 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="31">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G38" s="16"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="23"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="15">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
       <c r="O38" s="6" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
@@ -4038,41 +4112,41 @@
       <c r="D39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="23">
         <v>1</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="J39" s="33">
+        <v>511</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="32">
         <v>1</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>71</v>
+        <v>512</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
@@ -4094,9 +4168,9 @@
         <v>1</v>
       </c>
       <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="33">
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="32">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -4104,16 +4178,16 @@
         <v>23</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>72</v>
+        <v>513</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="P40" s="9" t="s">
         <v>23</v>
@@ -4138,9 +4212,9 @@
         <v>1</v>
       </c>
       <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="24">
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="23">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -4148,19 +4222,19 @@
         <v>24</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>202</v>
+        <v>514</v>
+      </c>
+      <c r="M41" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="N41" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
@@ -4181,23 +4255,23 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
       <c r="J42" s="15">
         <f t="shared" ref="J42" si="13">J41</f>
         <v>3</v>
       </c>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
       <c r="O42" s="6" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
@@ -4214,41 +4288,41 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="23">
         <v>2</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="J43" s="24">
+        <v>515</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="J43" s="23">
         <v>1</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="M43" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="N43" s="13" t="s">
-        <v>474</v>
+        <v>516</v>
+      </c>
+      <c r="M43" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="N43" s="40" t="s">
+        <v>428</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
@@ -4270,21 +4344,21 @@
         <v>2</v>
       </c>
       <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
       <c r="J44" s="15">
         <f t="shared" ref="J44:J47" si="14">J43</f>
         <v>1</v>
       </c>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
       <c r="O44" s="6" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
@@ -4306,21 +4380,21 @@
         <v>2</v>
       </c>
       <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
       <c r="J45" s="15">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
       <c r="O45" s="6" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
@@ -4342,21 +4416,21 @@
         <v>2</v>
       </c>
       <c r="G46" s="16"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
       <c r="J46" s="15">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="6" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
@@ -4378,21 +4452,21 @@
         <v>2</v>
       </c>
       <c r="G47" s="16"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="15">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
       <c r="O47" s="6" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
@@ -4414,28 +4488,28 @@
         <v>2</v>
       </c>
       <c r="G48" s="16"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="24">
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="23">
         <v>2</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>26</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M48" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="N48" s="13" t="s">
-        <v>203</v>
+        <v>517</v>
+      </c>
+      <c r="M48" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="N48" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
@@ -4457,20 +4531,20 @@
         <v>2</v>
       </c>
       <c r="G49" s="16"/>
-      <c r="I49" s="19"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="15">
         <f t="shared" ref="J49:J51" si="15">J48</f>
         <v>2</v>
       </c>
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
       <c r="O49" s="6" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
@@ -4492,20 +4566,20 @@
         <v>2</v>
       </c>
       <c r="G50" s="16"/>
-      <c r="I50" s="19"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="15">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
       <c r="O50" s="6" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
@@ -4527,20 +4601,20 @@
         <v>2</v>
       </c>
       <c r="G51" s="16"/>
-      <c r="I51" s="19"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="15">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="34"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="42"/>
       <c r="O51" s="6" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
@@ -4562,27 +4636,27 @@
         <v>2</v>
       </c>
       <c r="G52" s="16"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="24">
+      <c r="I52" s="17"/>
+      <c r="J52" s="23">
         <v>3</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>27</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>204</v>
+        <v>518</v>
+      </c>
+      <c r="M52" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N52" s="40" t="s">
+        <v>158</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
@@ -4604,20 +4678,20 @@
         <v>2</v>
       </c>
       <c r="G53" s="16"/>
-      <c r="I53" s="19"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="15">
         <f t="shared" ref="J53:J54" si="16">J52</f>
         <v>3</v>
       </c>
       <c r="K53" s="16"/>
       <c r="L53" s="16"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
       <c r="O53" s="6" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
@@ -4638,23 +4712,23 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="23"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="22"/>
       <c r="J54" s="15">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
       <c r="O54" s="6" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
@@ -4671,41 +4745,41 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="23">
         <v>3</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="J55" s="33">
+        <v>519</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="J55" s="32">
         <v>1</v>
       </c>
       <c r="K55" s="9" t="s">
         <v>28</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>106</v>
+        <v>520</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
@@ -4727,9 +4801,9 @@
         <v>3</v>
       </c>
       <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="24">
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="23">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -4737,19 +4811,19 @@
         <v>29</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="M56" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="N56" s="13" t="s">
-        <v>206</v>
+        <v>521</v>
+      </c>
+      <c r="M56" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="N56" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
@@ -4771,21 +4845,21 @@
         <v>3</v>
       </c>
       <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
       <c r="J57" s="15">
         <f t="shared" ref="J57:J58" si="17">J56</f>
         <v>2</v>
       </c>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
       <c r="O57" s="6" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
@@ -4806,23 +4880,23 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="23"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="22"/>
       <c r="J58" s="15">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
       <c r="O58" s="6" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
@@ -4839,41 +4913,41 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="23">
         <v>4</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="J59" s="24">
+        <v>522</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J59" s="23">
         <v>1</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L59" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="M59" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="M59" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="N59" s="13" t="s">
-        <v>207</v>
+      <c r="N59" s="40" t="s">
+        <v>161</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
@@ -4895,21 +4969,21 @@
         <v>4</v>
       </c>
       <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
       <c r="J60" s="15">
         <f t="shared" ref="J60:J61" si="18">J59</f>
         <v>1</v>
       </c>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
       <c r="O60" s="6" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
@@ -4931,21 +5005,21 @@
         <v>4</v>
       </c>
       <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
       <c r="J61" s="15">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
       <c r="O61" s="6" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
@@ -4967,28 +5041,28 @@
         <v>4</v>
       </c>
       <c r="G62" s="16"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="24">
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="23">
         <v>2</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L62" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="M62" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="M62" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="N62" s="13" t="s">
-        <v>208</v>
+      <c r="N62" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
@@ -5010,21 +5084,21 @@
         <v>4</v>
       </c>
       <c r="G63" s="16"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
       <c r="J63" s="15">
         <f t="shared" ref="J63:J65" si="19">J62</f>
         <v>2</v>
       </c>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
       <c r="O63" s="6" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
@@ -5046,21 +5120,21 @@
         <v>4</v>
       </c>
       <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
       <c r="J64" s="15">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
       <c r="O64" s="6" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
@@ -5082,21 +5156,21 @@
         <v>4</v>
       </c>
       <c r="G65" s="16"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
       <c r="J65" s="15">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
       <c r="O65" s="6" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
@@ -5118,27 +5192,27 @@
         <v>4</v>
       </c>
       <c r="G66" s="16"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="24">
+      <c r="I66" s="17"/>
+      <c r="J66" s="23">
         <v>3</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>32</v>
       </c>
       <c r="L66" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="M66" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="M66" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="N66" s="13" t="s">
-        <v>209</v>
+      <c r="N66" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
@@ -5160,20 +5234,20 @@
         <v>4</v>
       </c>
       <c r="G67" s="16"/>
-      <c r="I67" s="19"/>
+      <c r="I67" s="17"/>
       <c r="J67" s="15">
         <f t="shared" ref="J67:J74" si="20">J66</f>
         <v>3</v>
       </c>
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
       <c r="O67" s="6" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
@@ -5195,20 +5269,20 @@
         <v>4</v>
       </c>
       <c r="G68" s="16"/>
-      <c r="I68" s="19"/>
+      <c r="I68" s="17"/>
       <c r="J68" s="15">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
       <c r="O68" s="6" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
@@ -5230,20 +5304,20 @@
         <v>4</v>
       </c>
       <c r="G69" s="16"/>
-      <c r="I69" s="19"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="15">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
       <c r="O69" s="6" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
@@ -5265,20 +5339,20 @@
         <v>4</v>
       </c>
       <c r="G70" s="16"/>
-      <c r="I70" s="19"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="15">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
       <c r="O70" s="6" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
@@ -5300,20 +5374,20 @@
         <v>4</v>
       </c>
       <c r="G71" s="16"/>
-      <c r="I71" s="19"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="15">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="K71" s="16"/>
       <c r="L71" s="16"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
       <c r="O71" s="6" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
@@ -5335,20 +5409,20 @@
         <v>4</v>
       </c>
       <c r="G72" s="16"/>
-      <c r="I72" s="19"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="15">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
       <c r="O72" s="6" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
@@ -5370,20 +5444,20 @@
         <v>4</v>
       </c>
       <c r="G73" s="16"/>
-      <c r="I73" s="19"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="15">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
       <c r="O73" s="6" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="P73" s="9" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
@@ -5405,20 +5479,20 @@
         <v>4</v>
       </c>
       <c r="G74" s="16"/>
-      <c r="I74" s="19"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="15">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
       <c r="O74" s="6" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
@@ -5440,27 +5514,27 @@
         <v>4</v>
       </c>
       <c r="G75" s="16"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="24">
+      <c r="I75" s="17"/>
+      <c r="J75" s="23">
         <v>4</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L75" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="M75" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="M75" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="N75" s="13" t="s">
-        <v>210</v>
+      <c r="N75" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
@@ -5482,20 +5556,20 @@
         <v>4</v>
       </c>
       <c r="G76" s="16"/>
-      <c r="I76" s="19"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="15">
         <f t="shared" ref="J76:J77" si="22">J75</f>
         <v>4</v>
       </c>
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
       <c r="O76" s="6" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
@@ -5517,20 +5591,20 @@
         <v>4</v>
       </c>
       <c r="G77" s="16"/>
-      <c r="I77" s="19"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="15">
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
       <c r="O77" s="6" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="P77" s="9" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
@@ -5552,8 +5626,8 @@
         <v>4</v>
       </c>
       <c r="G78" s="16"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="33">
+      <c r="I78" s="17"/>
+      <c r="J78" s="32">
         <f>J75+1</f>
         <v>5</v>
       </c>
@@ -5561,19 +5635,19 @@
         <v>34</v>
       </c>
       <c r="L78" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="M78" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="M78" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="N78" s="8" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
@@ -5595,8 +5669,8 @@
         <v>4</v>
       </c>
       <c r="G79" s="16"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="24">
+      <c r="I79" s="17"/>
+      <c r="J79" s="23">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -5604,19 +5678,19 @@
         <v>35</v>
       </c>
       <c r="L79" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="M79" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="M79" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="N79" s="13" t="s">
-        <v>212</v>
+      <c r="N79" s="40" t="s">
+        <v>166</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
@@ -5637,23 +5711,23 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="F80" s="20"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="23"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="22"/>
       <c r="J80" s="15">
         <f t="shared" ref="J80:J97" si="23">J79</f>
         <v>6</v>
       </c>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="34"/>
-      <c r="N80" s="34"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
       <c r="O80" s="6" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
@@ -5670,41 +5744,41 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="29">
         <v>5</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="J81" s="24">
+        <v>529</v>
+      </c>
+      <c r="H81" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I81" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J81" s="23">
         <v>1</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>36</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="M81" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="N81" s="13" t="s">
-        <v>213</v>
+        <v>530</v>
+      </c>
+      <c r="M81" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="N81" s="40" t="s">
+        <v>167</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="Q81" s="9"/>
       <c r="R81" s="9"/>
@@ -5726,21 +5800,21 @@
         <v>5</v>
       </c>
       <c r="G82" s="16"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
       <c r="J82" s="15">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="K82" s="16"/>
       <c r="L82" s="16"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
       <c r="O82" s="6" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="Q82" s="9"/>
       <c r="R82" s="9"/>
@@ -5762,21 +5836,21 @@
         <v>5</v>
       </c>
       <c r="G83" s="16"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
       <c r="J83" s="15">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="K83" s="16"/>
       <c r="L83" s="16"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="41"/>
       <c r="O83" s="6" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="P83" s="9" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
@@ -5798,21 +5872,21 @@
         <v>5</v>
       </c>
       <c r="G84" s="16"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
       <c r="J84" s="15">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="34"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
       <c r="O84" s="6" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="Q84" s="9"/>
       <c r="R84" s="9"/>
@@ -5834,28 +5908,28 @@
         <v>5</v>
       </c>
       <c r="G85" s="16"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="24">
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="23">
         <v>2</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>37</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="M85" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="N85" s="13" t="s">
-        <v>214</v>
+        <v>531</v>
+      </c>
+      <c r="M85" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="N85" s="40" t="s">
+        <v>168</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="P85" s="9" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
@@ -5877,21 +5951,21 @@
         <v>5</v>
       </c>
       <c r="G86" s="16"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
       <c r="J86" s="15">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="34"/>
-      <c r="N86" s="34"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
       <c r="O86" s="6" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="P86" s="9" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
@@ -5913,28 +5987,28 @@
         <v>5</v>
       </c>
       <c r="G87" s="16"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="24">
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="23">
         <v>3</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>38</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="M87" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="N87" s="13" t="s">
-        <v>215</v>
+        <v>532</v>
+      </c>
+      <c r="M87" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="N87" s="40" t="s">
+        <v>169</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
@@ -5956,20 +6030,20 @@
         <v>5</v>
       </c>
       <c r="G88" s="16"/>
-      <c r="I88" s="19"/>
+      <c r="I88" s="17"/>
       <c r="J88" s="15">
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="41"/>
       <c r="O88" s="6" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="P88" s="9" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="Q88" s="9"/>
       <c r="R88" s="9"/>
@@ -5991,20 +6065,20 @@
         <v>5</v>
       </c>
       <c r="G89" s="16"/>
-      <c r="I89" s="19"/>
+      <c r="I89" s="17"/>
       <c r="J89" s="15">
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
       <c r="O89" s="6" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="P89" s="9" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="Q89" s="9"/>
       <c r="R89" s="9"/>
@@ -6026,27 +6100,27 @@
         <v>5</v>
       </c>
       <c r="G90" s="16"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="24">
+      <c r="I90" s="17"/>
+      <c r="J90" s="23">
         <v>4</v>
       </c>
       <c r="K90" s="12" t="s">
         <v>39</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="M90" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="N90" s="13" t="s">
-        <v>216</v>
+        <v>533</v>
+      </c>
+      <c r="M90" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="N90" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="P90" s="9" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="Q90" s="9"/>
       <c r="R90" s="9"/>
@@ -6067,21 +6141,21 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="G91" s="21"/>
-      <c r="I91" s="19"/>
+      <c r="G91" s="20"/>
+      <c r="I91" s="17"/>
       <c r="J91" s="15">
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
       <c r="O91" s="6" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="Q91" s="9"/>
       <c r="R91" s="9"/>
@@ -6098,41 +6172,41 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="E92" s="24">
+      <c r="E92" s="23">
         <v>6</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="J92" s="24">
+        <v>534</v>
+      </c>
+      <c r="H92" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I92" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="J92" s="23">
         <v>1</v>
       </c>
       <c r="K92" s="12" t="s">
         <v>40</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M92" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="N92" s="13" t="s">
-        <v>217</v>
+        <v>535</v>
+      </c>
+      <c r="M92" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="N92" s="40" t="s">
+        <v>171</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="P92" s="9" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="Q92" s="9"/>
       <c r="R92" s="9"/>
@@ -6154,21 +6228,21 @@
         <v>6</v>
       </c>
       <c r="G93" s="16"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
       <c r="J93" s="15">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="K93" s="16"/>
       <c r="L93" s="16"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
+      <c r="M93" s="41"/>
+      <c r="N93" s="41"/>
       <c r="O93" s="6" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="Q93" s="9"/>
       <c r="R93" s="9"/>
@@ -6190,21 +6264,21 @@
         <v>6</v>
       </c>
       <c r="G94" s="16"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
       <c r="J94" s="15">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="34"/>
-      <c r="N94" s="34"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
       <c r="O94" s="6" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="P94" s="9" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="Q94" s="9"/>
       <c r="R94" s="9"/>
@@ -6226,28 +6300,28 @@
         <v>6</v>
       </c>
       <c r="G95" s="16"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="24">
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="23">
         <v>2</v>
       </c>
       <c r="K95" s="12" t="s">
         <v>41</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M95" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="N95" s="13" t="s">
-        <v>218</v>
+        <v>536</v>
+      </c>
+      <c r="M95" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="N95" s="40" t="s">
+        <v>172</v>
       </c>
       <c r="O95" s="6" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="P95" s="9" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="Q95" s="9"/>
       <c r="R95" s="9"/>
@@ -6269,21 +6343,21 @@
         <v>6</v>
       </c>
       <c r="G96" s="16"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
       <c r="J96" s="15">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="K96" s="16"/>
       <c r="L96" s="16"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
       <c r="O96" s="6" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="P96" s="9" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="Q96" s="9"/>
       <c r="R96" s="9"/>
@@ -6305,21 +6379,21 @@
         <v>6</v>
       </c>
       <c r="G97" s="16"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
       <c r="J97" s="15">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="34"/>
-      <c r="N97" s="34"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="42"/>
       <c r="O97" s="6" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="P97" s="9" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
@@ -6341,9 +6415,9 @@
         <v>6</v>
       </c>
       <c r="G98" s="16"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="33">
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="32">
         <f>J95+1</f>
         <v>3</v>
       </c>
@@ -6351,19 +6425,19 @@
         <v>42</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>120</v>
+        <v>537</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="Q98" s="9"/>
       <c r="R98" s="9"/>
@@ -6385,9 +6459,9 @@
         <v>6</v>
       </c>
       <c r="G99" s="16"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="24">
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="23">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -6395,19 +6469,19 @@
         <v>43</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M99" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="N99" s="13" t="s">
-        <v>220</v>
+        <v>538</v>
+      </c>
+      <c r="M99" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="N99" s="40" t="s">
+        <v>174</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="P99" s="9" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="Q99" s="9"/>
       <c r="R99" s="9"/>
@@ -6429,21 +6503,21 @@
         <v>6</v>
       </c>
       <c r="G100" s="16"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
       <c r="J100" s="15">
         <f t="shared" ref="J100" si="26">J99</f>
         <v>4</v>
       </c>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="34"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="42"/>
+      <c r="N100" s="42"/>
       <c r="O100" s="6" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="P100" s="9" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
@@ -6465,28 +6539,28 @@
         <v>6</v>
       </c>
       <c r="G101" s="16"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="24">
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="23">
         <v>5</v>
       </c>
       <c r="K101" s="12" t="s">
         <v>44</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="M101" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="N101" s="13" t="s">
-        <v>221</v>
+        <v>539</v>
+      </c>
+      <c r="M101" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="N101" s="40" t="s">
+        <v>175</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
@@ -6507,23 +6581,23 @@
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="F102" s="20"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
       <c r="J102" s="15">
         <f t="shared" ref="J102" si="27">J101</f>
         <v>5</v>
       </c>
-      <c r="K102" s="21"/>
-      <c r="L102" s="21"/>
-      <c r="M102" s="34"/>
-      <c r="N102" s="34"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
       <c r="O102" s="6" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="P102" s="9" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
@@ -6540,41 +6614,41 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="E103" s="30">
+      <c r="E103" s="29">
         <v>7</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H103" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="I103" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="J103" s="24">
+        <v>540</v>
+      </c>
+      <c r="H103" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I103" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="J103" s="23">
         <v>1</v>
       </c>
       <c r="K103" s="16" t="s">
         <v>45</v>
       </c>
       <c r="L103" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="M103" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="N103" s="17" t="s">
-        <v>222</v>
+        <v>541</v>
+      </c>
+      <c r="M103" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="N103" s="41" t="s">
+        <v>176</v>
       </c>
       <c r="O103" s="6" t="s">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
@@ -6596,21 +6670,21 @@
         <v>7</v>
       </c>
       <c r="G104" s="16"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="32">
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="31">
         <f t="shared" ref="J104" si="29">J103</f>
         <v>1</v>
       </c>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="34"/>
-      <c r="N104" s="34"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
       <c r="O104" s="6" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="P104" s="9" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="Q104" s="9"/>
       <c r="R104" s="9"/>
@@ -6632,28 +6706,28 @@
         <v>7</v>
       </c>
       <c r="G105" s="16"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="24">
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="23">
         <v>2</v>
       </c>
       <c r="K105" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="M105" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="N105" s="13" t="s">
-        <v>223</v>
+        <v>542</v>
+      </c>
+      <c r="M105" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="N105" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="O105" s="6" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="P105" s="9" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="Q105" s="9"/>
       <c r="R105" s="9"/>
@@ -6675,21 +6749,21 @@
         <v>7</v>
       </c>
       <c r="G106" s="16"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
       <c r="J106" s="15">
         <f t="shared" ref="J106" si="31">J105</f>
         <v>2</v>
       </c>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="34"/>
-      <c r="N106" s="34"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
       <c r="O106" s="6" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="P106" s="9" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="Q106" s="9"/>
       <c r="R106" s="9"/>
@@ -6711,27 +6785,27 @@
         <v>7</v>
       </c>
       <c r="G107" s="16"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="24">
+      <c r="I107" s="17"/>
+      <c r="J107" s="23">
         <v>3</v>
       </c>
       <c r="K107" s="12" t="s">
         <v>47</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="M107" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="N107" s="13" t="s">
-        <v>224</v>
+        <v>543</v>
+      </c>
+      <c r="M107" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="N107" s="40" t="s">
+        <v>178</v>
       </c>
       <c r="O107" s="6" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="P107" s="9" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="Q107" s="9"/>
       <c r="R107" s="9"/>
@@ -6753,20 +6827,20 @@
         <v>7</v>
       </c>
       <c r="G108" s="16"/>
-      <c r="I108" s="19"/>
+      <c r="I108" s="17"/>
       <c r="J108" s="15">
         <f t="shared" ref="J108:J109" si="32">J107</f>
         <v>3</v>
       </c>
       <c r="K108" s="16"/>
       <c r="L108" s="16"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
+      <c r="M108" s="41"/>
+      <c r="N108" s="41"/>
       <c r="O108" s="6" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
@@ -6788,20 +6862,20 @@
         <v>7</v>
       </c>
       <c r="G109" s="16"/>
-      <c r="I109" s="19"/>
+      <c r="I109" s="17"/>
       <c r="J109" s="15">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
-      <c r="M109" s="34"/>
-      <c r="N109" s="34"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
       <c r="O109" s="6" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="P109" s="9" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="Q109" s="9"/>
       <c r="R109" s="9"/>
@@ -6823,27 +6897,27 @@
         <v>7</v>
       </c>
       <c r="G110" s="16"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="24">
+      <c r="I110" s="17"/>
+      <c r="J110" s="23">
         <v>4</v>
       </c>
       <c r="K110" s="12" t="s">
         <v>48</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M110" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="N110" s="35" t="s">
-        <v>225</v>
+        <v>544</v>
+      </c>
+      <c r="M110" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="N110" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="O110" s="6" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="P110" s="9" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
@@ -6865,20 +6939,20 @@
         <v>7</v>
       </c>
       <c r="G111" s="16"/>
-      <c r="I111" s="19"/>
+      <c r="I111" s="17"/>
       <c r="J111" s="15">
         <f t="shared" ref="J111:J112" si="33">J110</f>
         <v>4</v>
       </c>
       <c r="K111" s="16"/>
       <c r="L111" s="16"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="19"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="17"/>
       <c r="O111" s="6" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="P111" s="9" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="Q111" s="9"/>
       <c r="R111" s="9"/>
@@ -6900,20 +6974,20 @@
         <v>7</v>
       </c>
       <c r="G112" s="16"/>
-      <c r="I112" s="19"/>
+      <c r="I112" s="17"/>
       <c r="J112" s="15">
         <f t="shared" si="33"/>
         <v>4</v>
       </c>
-      <c r="K112" s="21"/>
-      <c r="L112" s="21"/>
-      <c r="M112" s="34"/>
-      <c r="N112" s="23"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="22"/>
       <c r="O112" s="6" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="P112" s="9" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="Q112" s="9"/>
       <c r="R112" s="9"/>
@@ -6935,27 +7009,27 @@
         <v>7</v>
       </c>
       <c r="G113" s="16"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="24">
+      <c r="I113" s="17"/>
+      <c r="J113" s="23">
         <v>5</v>
       </c>
       <c r="K113" s="12" t="s">
         <v>49</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="M113" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="N113" s="13" t="s">
-        <v>226</v>
+        <v>545</v>
+      </c>
+      <c r="M113" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="N113" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="O113" s="6" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="P113" s="9" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="Q113" s="9"/>
       <c r="R113" s="9"/>
@@ -6977,20 +7051,20 @@
         <v>7</v>
       </c>
       <c r="G114" s="16"/>
-      <c r="I114" s="19"/>
+      <c r="I114" s="17"/>
       <c r="J114" s="15">
         <f t="shared" ref="J114:J115" si="34">J113</f>
         <v>5</v>
       </c>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
+      <c r="M114" s="41"/>
+      <c r="N114" s="41"/>
       <c r="O114" s="6" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="P114" s="9" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
@@ -7012,20 +7086,20 @@
         <v>7</v>
       </c>
       <c r="G115" s="16"/>
-      <c r="I115" s="19"/>
+      <c r="I115" s="17"/>
       <c r="J115" s="15">
         <f t="shared" si="34"/>
         <v>5</v>
       </c>
-      <c r="K115" s="21"/>
-      <c r="L115" s="21"/>
-      <c r="M115" s="34"/>
-      <c r="N115" s="34"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="42"/>
       <c r="O115" s="6" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="P115" s="9" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="Q115" s="9"/>
       <c r="R115" s="9"/>
@@ -7042,41 +7116,41 @@
         <f t="shared" si="30"/>
         <v>2</v>
       </c>
-      <c r="E116" s="24">
+      <c r="E116" s="23">
         <v>8</v>
       </c>
       <c r="F116" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I116" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="J116" s="24">
+        <v>546</v>
+      </c>
+      <c r="H116" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="I116" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="J116" s="23">
         <v>1</v>
       </c>
       <c r="K116" s="12" t="s">
         <v>50</v>
       </c>
       <c r="L116" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M116" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="N116" s="13" t="s">
-        <v>227</v>
+        <v>547</v>
+      </c>
+      <c r="M116" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="N116" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="O116" s="6" t="s">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="P116" s="9" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
@@ -7098,21 +7172,21 @@
         <v>8</v>
       </c>
       <c r="G117" s="16"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
       <c r="J117" s="15">
         <f t="shared" ref="J117:J118" si="36">J116</f>
         <v>1</v>
       </c>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
+      <c r="M117" s="41"/>
+      <c r="N117" s="41"/>
       <c r="O117" s="6" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="P117" s="9" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="Q117" s="9"/>
       <c r="R117" s="9"/>
@@ -7134,21 +7208,21 @@
         <v>8</v>
       </c>
       <c r="G118" s="16"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
       <c r="J118" s="15">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="K118" s="21"/>
-      <c r="L118" s="21"/>
-      <c r="M118" s="34"/>
-      <c r="N118" s="34"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="42"/>
+      <c r="N118" s="42"/>
       <c r="O118" s="6" t="s">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="P118" s="9" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="Q118" s="9"/>
       <c r="R118" s="9"/>
@@ -7170,28 +7244,28 @@
         <v>8</v>
       </c>
       <c r="G119" s="16"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="24">
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="23">
         <v>2</v>
       </c>
       <c r="K119" s="12" t="s">
         <v>51</v>
       </c>
       <c r="L119" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="M119" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="N119" s="13" t="s">
-        <v>228</v>
+        <v>548</v>
+      </c>
+      <c r="M119" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="N119" s="40" t="s">
+        <v>182</v>
       </c>
       <c r="O119" s="6" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="P119" s="9" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="Q119" s="9"/>
       <c r="R119" s="9"/>
@@ -7208,27 +7282,27 @@
         <f t="shared" si="30"/>
         <v>2</v>
       </c>
-      <c r="D120" s="36"/>
+      <c r="D120" s="33"/>
       <c r="E120" s="15">
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="G120" s="16"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
       <c r="J120" s="15">
         <f t="shared" ref="J120" si="37">J119</f>
         <v>2</v>
       </c>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
-      <c r="M120" s="34"/>
-      <c r="N120" s="34"/>
+      <c r="M120" s="42"/>
+      <c r="N120" s="42"/>
       <c r="O120" s="10" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="P120" s="12" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="Q120" s="12"/>
       <c r="R120" s="12"/>
@@ -7245,33 +7319,33 @@
         <f t="shared" si="30"/>
         <v>2</v>
       </c>
-      <c r="D121" s="36"/>
+      <c r="D121" s="33"/>
       <c r="E121" s="15">
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="G121" s="16"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="24">
+      <c r="I121" s="17"/>
+      <c r="J121" s="23">
         <v>3</v>
       </c>
       <c r="K121" s="12" t="s">
         <v>52</v>
       </c>
       <c r="L121" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="M121" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="N121" s="13" t="s">
-        <v>229</v>
+        <v>549</v>
+      </c>
+      <c r="M121" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="N121" s="40" t="s">
+        <v>183</v>
       </c>
       <c r="O121" s="6" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="P121" s="9" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="Q121" s="9"/>
       <c r="R121" s="9"/>
@@ -7293,19 +7367,19 @@
         <v>8</v>
       </c>
       <c r="G122" s="16"/>
-      <c r="I122" s="19"/>
+      <c r="I122" s="17"/>
       <c r="J122" s="15">
         <f t="shared" ref="J122:J124" si="38">J121</f>
         <v>3</v>
       </c>
       <c r="K122" s="16"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
+      <c r="M122" s="41"/>
+      <c r="N122" s="41"/>
       <c r="O122" s="6" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="P122" s="9" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="Q122" s="9"/>
       <c r="R122" s="9"/>
@@ -7327,19 +7401,19 @@
         <v>8</v>
       </c>
       <c r="G123" s="16"/>
-      <c r="I123" s="19"/>
+      <c r="I123" s="17"/>
       <c r="J123" s="15">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
       <c r="K123" s="16"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
+      <c r="M123" s="41"/>
+      <c r="N123" s="41"/>
       <c r="O123" s="6" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="P123" s="9" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="Q123" s="9"/>
       <c r="R123" s="9"/>
@@ -7352,32 +7426,32 @@
         <f t="shared" si="21"/>
         <v>122</v>
       </c>
-      <c r="C124" s="32">
+      <c r="C124" s="31">
         <f t="shared" si="30"/>
         <v>2</v>
       </c>
-      <c r="D124" s="20"/>
-      <c r="E124" s="32">
+      <c r="D124" s="19"/>
+      <c r="E124" s="31">
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
-      <c r="F124" s="20"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="23"/>
-      <c r="J124" s="32">
+      <c r="F124" s="19"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="31">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K124" s="21"/>
-      <c r="L124" s="20"/>
-      <c r="M124" s="34"/>
-      <c r="N124" s="23"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="22"/>
       <c r="O124" s="6" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="P124" s="9" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="Q124" s="9"/>
       <c r="R124" s="9"/>
@@ -7386,33 +7460,33 @@
       <c r="U124" s="9"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="C125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="J125" s="38"/>
+      <c r="C125" s="34"/>
+      <c r="E125" s="34"/>
+      <c r="J125" s="35"/>
       <c r="K125" s="11"/>
       <c r="L125" s="11"/>
-      <c r="M125" s="39"/>
-      <c r="N125" s="39"/>
+      <c r="M125" s="36"/>
+      <c r="N125" s="36"/>
       <c r="O125" s="11" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="P125" s="11" t="s">
-        <v>540</v>
+        <v>494</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B126" s="40"/>
-      <c r="C126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="J126" s="41"/>
-      <c r="O126" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="P126" s="20" t="s">
-        <v>541</v>
+        <v>72</v>
+      </c>
+      <c r="B126" s="37"/>
+      <c r="C126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="J126" s="38"/>
+      <c r="O126" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="P126" s="19" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.4">
@@ -7428,19 +7502,19 @@
       <c r="E127" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F127" s="42" t="s">
+      <c r="F127" s="39" t="s">
         <v>55</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="J127" s="41"/>
+        <v>135</v>
+      </c>
+      <c r="J127" s="38"/>
     </row>
     <row r="128" spans="1:21" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B128" s="6">
@@ -7460,13 +7534,13 @@
         <v>60</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="H128" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="I128" s="35" t="s">
-        <v>254</v>
+        <v>184</v>
+      </c>
+      <c r="H128" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="2:9" ht="47.25" x14ac:dyDescent="0.4">
@@ -7478,20 +7552,20 @@
         <f t="shared" ref="C129:C142" si="40">C128</f>
         <v>3</v>
       </c>
-      <c r="E129" s="33">
+      <c r="E129" s="32">
         <v>2</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I129" s="19" t="s">
-        <v>255</v>
+        <v>194</v>
+      </c>
+      <c r="I129" s="17" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="31.5" x14ac:dyDescent="0.4">
@@ -7503,20 +7577,20 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="E130" s="30">
+      <c r="E130" s="29">
         <v>3</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="I130" s="19" t="s">
-        <v>256</v>
+        <v>195</v>
+      </c>
+      <c r="I130" s="17" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.4">
@@ -7528,20 +7602,20 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="E131" s="33">
+      <c r="E131" s="32">
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="I131" s="19" t="s">
-        <v>274</v>
+        <v>196</v>
+      </c>
+      <c r="I131" s="17" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="31.5" x14ac:dyDescent="0.4">
@@ -7553,20 +7627,20 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="E132" s="30">
+      <c r="E132" s="29">
         <v>5</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I132" s="19" t="s">
-        <v>257</v>
+        <v>197</v>
+      </c>
+      <c r="I132" s="17" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="47.25" x14ac:dyDescent="0.4">
@@ -7578,20 +7652,20 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="E133" s="33">
+      <c r="E133" s="32">
         <v>6</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="I133" s="19" t="s">
-        <v>275</v>
+        <v>199</v>
+      </c>
+      <c r="I133" s="17" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="2:9" ht="47.25" x14ac:dyDescent="0.4">
@@ -7603,20 +7677,20 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="E134" s="30">
+      <c r="E134" s="29">
         <v>7</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="I134" s="19" t="s">
-        <v>258</v>
+        <v>198</v>
+      </c>
+      <c r="I134" s="17" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="31.5" x14ac:dyDescent="0.4">
@@ -7628,20 +7702,20 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="E135" s="33">
+      <c r="E135" s="32">
         <v>8</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I135" s="19" t="s">
-        <v>259</v>
+        <v>200</v>
+      </c>
+      <c r="I135" s="17" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="2:9" ht="47.25" x14ac:dyDescent="0.4">
@@ -7653,20 +7727,20 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="E136" s="30">
+      <c r="E136" s="29">
         <v>9</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I136" s="19" t="s">
-        <v>260</v>
+        <v>201</v>
+      </c>
+      <c r="I136" s="17" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="31.5" x14ac:dyDescent="0.4">
@@ -7678,20 +7752,20 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="E137" s="33">
+      <c r="E137" s="32">
         <v>10</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I137" s="19" t="s">
-        <v>261</v>
+        <v>202</v>
+      </c>
+      <c r="I137" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="47.25" x14ac:dyDescent="0.4">
@@ -7703,20 +7777,20 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="E138" s="30">
+      <c r="E138" s="29">
         <v>11</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I138" s="19" t="s">
-        <v>262</v>
+        <v>203</v>
+      </c>
+      <c r="I138" s="17" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="2:9" ht="47.25" x14ac:dyDescent="0.4">
@@ -7728,20 +7802,20 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="E139" s="33">
+      <c r="E139" s="32">
         <v>12</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I139" s="19" t="s">
-        <v>263</v>
+        <v>204</v>
+      </c>
+      <c r="I139" s="17" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="31.5" x14ac:dyDescent="0.4">
@@ -7753,20 +7827,20 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="E140" s="30">
+      <c r="E140" s="29">
         <v>13</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="I140" s="19" t="s">
-        <v>264</v>
+        <v>207</v>
+      </c>
+      <c r="I140" s="17" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="2:9" ht="47.25" x14ac:dyDescent="0.4">
@@ -7778,20 +7852,20 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="E141" s="33">
+      <c r="E141" s="32">
         <v>14</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I141" s="19" t="s">
-        <v>265</v>
+        <v>205</v>
+      </c>
+      <c r="I141" s="17" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="142" spans="2:9" ht="47.25" x14ac:dyDescent="0.4">
@@ -7799,49 +7873,82 @@
         <f t="shared" si="39"/>
         <v>134</v>
       </c>
-      <c r="C142" s="32">
+      <c r="C142" s="31">
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="D142" s="20"/>
-      <c r="E142" s="27">
+      <c r="D142" s="19"/>
+      <c r="E142" s="26">
         <v>15</v>
       </c>
-      <c r="F142" s="20" t="s">
+      <c r="F142" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G142" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H142" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="I142" s="23" t="s">
-        <v>266</v>
+      <c r="G142" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H142" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="I142" s="22" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="N36:N38"/>
-    <mergeCell ref="M36:M38"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="H116:H120"/>
+    <mergeCell ref="I116:I120"/>
+    <mergeCell ref="M116:M118"/>
+    <mergeCell ref="N116:N118"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="M59:M61"/>
+    <mergeCell ref="N59:N61"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="I92:I102"/>
+    <mergeCell ref="H92:H102"/>
+    <mergeCell ref="N113:N115"/>
+    <mergeCell ref="M113:M115"/>
+    <mergeCell ref="M110:M112"/>
+    <mergeCell ref="M107:M109"/>
+    <mergeCell ref="N107:N109"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="N90:N91"/>
+    <mergeCell ref="N87:N89"/>
+    <mergeCell ref="I81:I87"/>
+    <mergeCell ref="H81:H87"/>
+    <mergeCell ref="N99:N100"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="N95:N97"/>
+    <mergeCell ref="M95:M97"/>
+    <mergeCell ref="N92:N94"/>
+    <mergeCell ref="M92:M94"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="M87:M89"/>
+    <mergeCell ref="I59:I65"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="H59:H65"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="N56:N58"/>
+    <mergeCell ref="M56:M58"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="H39:H42"/>
     <mergeCell ref="M121:M124"/>
     <mergeCell ref="N121:N123"/>
     <mergeCell ref="N119:N120"/>
@@ -7858,59 +7965,26 @@
     <mergeCell ref="M66:M69"/>
     <mergeCell ref="N81:N84"/>
     <mergeCell ref="M81:M84"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="H59:H65"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="N56:N58"/>
-    <mergeCell ref="M56:M58"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="M87:M89"/>
-    <mergeCell ref="I59:I65"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="N99:N100"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="N95:N97"/>
-    <mergeCell ref="M95:M97"/>
-    <mergeCell ref="N92:N94"/>
-    <mergeCell ref="M92:M94"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="N90:N91"/>
-    <mergeCell ref="N87:N89"/>
-    <mergeCell ref="I81:I87"/>
-    <mergeCell ref="H81:H87"/>
-    <mergeCell ref="M107:M109"/>
-    <mergeCell ref="N107:N109"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="N105:N106"/>
-    <mergeCell ref="H116:H120"/>
-    <mergeCell ref="I116:I120"/>
-    <mergeCell ref="M116:M118"/>
-    <mergeCell ref="N116:N118"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="M59:M61"/>
-    <mergeCell ref="N59:N61"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="I92:I102"/>
-    <mergeCell ref="H92:H102"/>
-    <mergeCell ref="N113:N115"/>
-    <mergeCell ref="M113:M115"/>
-    <mergeCell ref="M110:M112"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
